--- a/2019 Nowa Formuła/Zad 5/zad5.xlsx
+++ b/2019 Nowa Formuła/Zad 5/zad5.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
     <sheet name="5.1" sheetId="2" r:id="rId2"/>
     <sheet name="5.2" sheetId="4" r:id="rId3"/>
-    <sheet name="5.3" sheetId="6" r:id="rId4"/>
+    <sheet name="5.3" sheetId="7" r:id="rId4"/>
+    <sheet name="5.4" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5.3'!$F$1:$F$501</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dane!$A$2:$H$501</definedName>
     <definedName name="pogoda" localSheetId="1">'5.1'!$A$1:$E$501</definedName>
     <definedName name="pogoda" localSheetId="2">'5.2'!$A$1:$E$501</definedName>
     <definedName name="pogoda" localSheetId="3">'5.3'!$A$1:$E$501</definedName>
+    <definedName name="pogoda" localSheetId="4">'5.4'!$A$1:$E$501</definedName>
     <definedName name="pogoda" localSheetId="0">Dane!$A$1:$E$501</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -60,6 +61,17 @@
     </textPr>
   </connection>
   <connection id="4" name="pogoda3" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="C:\Users\Dawid_PC\Desktop\Matury rozszerzone\Matury-rozszerzone\2019 Nowa Formuła\pogoda.txt" decimal="," thousands=" " semicolon="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="pogoda4" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="852" sourceFile="C:\Users\Dawid_PC\Desktop\Matury rozszerzone\Matury-rozszerzone\2019 Nowa Formuła\pogoda.txt" decimal="," thousands=" " tab="0" semicolon="1">
       <textFields count="5">
         <textField/>
@@ -74,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="10">
   <si>
     <t>Dzien</t>
   </si>
@@ -100,14 +112,17 @@
     <t>ciag</t>
   </si>
   <si>
-    <t>chmury</t>
+    <t>Chmura</t>
+  </si>
+  <si>
+    <t>wielkosc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +139,38 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,15 +178,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -179,6 +246,10 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pogoda" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pogoda" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15015,7 +15086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -29559,7 +29630,7 @@
   <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K449" sqref="K449"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46114,8 +46185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M17" sqref="M16:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46125,25 +46196,26 @@
     <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -56649,8 +56721,8560 @@
     </row>
   </sheetData>
   <sortState ref="A2:F501">
-    <sortCondition ref="F1"/>
+    <sortCondition ref="F2:F501"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F501"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>23.6</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>23.6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>22.3</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>18.5</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>19.5</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>21.8</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>24.8</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>27.7</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>29.5</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>29.8</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>28.3</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>25.5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>16.3</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>18.7</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20.2</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>20.8</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>17.5</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>13.9</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>9.9</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6.4</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4.2</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3.6</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6.6</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>10.1</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>6.4</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3.8</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1.7</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>11.8</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>14.7</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>16.3</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>16.3</v>
+      </c>
+      <c r="C49">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>15.2</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>13.6</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>12.5</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>12.5</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>14.1</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>20.9</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>24.5</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>27.3</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>28.4</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>27.8</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>25.9</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>23.4</v>
+      </c>
+      <c r="C62">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>21.2</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>20.3</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>21.8</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>26.1</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>27.3</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>26.8</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>24.7</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>21.2</v>
+      </c>
+      <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>17.3</v>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>13.7</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>11.3</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>10.5</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>12.5</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>14.7</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>14.1</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>11.9</v>
+      </c>
+      <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>0.5</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>0.6</v>
+      </c>
+      <c r="C87">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7.9</v>
+      </c>
+      <c r="C90">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>10.9</v>
+      </c>
+      <c r="C92">
+        <v>29</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>10.3</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>6.7</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>5.3</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>5.2</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>6.8</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C99">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>13.7</v>
+      </c>
+      <c r="C100">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>17.7</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>20.8</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>22.4</v>
+      </c>
+      <c r="C103">
+        <v>20</v>
+      </c>
+      <c r="D103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>22.5</v>
+      </c>
+      <c r="C104">
+        <v>17</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>21.2</v>
+      </c>
+      <c r="C105">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>19.5</v>
+      </c>
+      <c r="C106">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>17.8</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>21.3</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>24.5</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>27.5</v>
+      </c>
+      <c r="C112">
+        <v>12</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>29.5</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>29.9</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>28.6</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>25.9</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>22.6</v>
+      </c>
+      <c r="C117">
+        <v>23</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>19.7</v>
+      </c>
+      <c r="C118">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>17.8</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>17.3</v>
+      </c>
+      <c r="C120">
+        <v>27</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>18.2</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>19.8</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>21.4</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>22</v>
+      </c>
+      <c r="C124">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>21.2</v>
+      </c>
+      <c r="C125">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>18.8</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>15.2</v>
+      </c>
+      <c r="C127">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>11.1</v>
+      </c>
+      <c r="C128">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7.5</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5.2</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C131">
+        <v>23</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5.5</v>
+      </c>
+      <c r="C132">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7.3</v>
+      </c>
+      <c r="C133">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C134">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>10.5</v>
+      </c>
+      <c r="C135">
+        <v>21</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>10.4</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>9</v>
+      </c>
+      <c r="C137">
+        <v>4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>6.4</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>3.6</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>1.4</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>0.5</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1.4</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>3.9</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7.3</v>
+      </c>
+      <c r="C144">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>10.9</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>13.7</v>
+      </c>
+      <c r="C146">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>15.1</v>
+      </c>
+      <c r="C147">
+        <v>21</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>15.1</v>
+      </c>
+      <c r="C148">
+        <v>14</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>13.9</v>
+      </c>
+      <c r="C149">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>12.3</v>
+      </c>
+      <c r="C150">
+        <v>20</v>
+      </c>
+      <c r="D150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>11.2</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>11.3</v>
+      </c>
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>12.9</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153" t="s">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>16</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>19.8</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>23.6</v>
+      </c>
+      <c r="C156">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s">
+        <v>5</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>26.4</v>
+      </c>
+      <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>27.7</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>27.2</v>
+      </c>
+      <c r="C159">
+        <v>18</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>25.5</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>23.1</v>
+      </c>
+      <c r="C161">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>21</v>
+      </c>
+      <c r="C162">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>20</v>
+      </c>
+      <c r="C163">
+        <v>19</v>
+      </c>
+      <c r="D163" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C164">
+        <v>23</v>
+      </c>
+      <c r="D164" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>22.1</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>24.5</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>26.8</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>28</v>
+      </c>
+      <c r="C168">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>27.7</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>25.6</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>22.3</v>
+      </c>
+      <c r="C171">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>14.9</v>
+      </c>
+      <c r="C173">
+        <v>18</v>
+      </c>
+      <c r="D173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>12.5</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>11.7</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>12.3</v>
+      </c>
+      <c r="C176">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>13.7</v>
+      </c>
+      <c r="C177">
+        <v>22</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>15.2</v>
+      </c>
+      <c r="C178">
+        <v>23</v>
+      </c>
+      <c r="D178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>15.9</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>15.1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>12.9</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>9.6</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>5.9</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2.8</v>
+      </c>
+      <c r="C184">
+        <v>6</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>9</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>0.9</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2.5</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7.7</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C190">
+        <v>6</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>10.4</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C192">
+        <v>22</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>8</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5.9</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>6</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C195">
+        <v>4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>6</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>4.2</v>
+      </c>
+      <c r="C196">
+        <v>6</v>
+      </c>
+      <c r="D196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>5.6</v>
+      </c>
+      <c r="C197">
+        <v>8</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>8.6</v>
+      </c>
+      <c r="C198">
+        <v>12</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>12.5</v>
+      </c>
+      <c r="C199">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C200">
+        <v>14</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>19.5</v>
+      </c>
+      <c r="C201">
+        <v>12</v>
+      </c>
+      <c r="D201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>21.2</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>21.3</v>
+      </c>
+      <c r="C203">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C206">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>6</v>
+      </c>
+      <c r="E206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C207">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>18.2</v>
+      </c>
+      <c r="C208">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>6</v>
+      </c>
+      <c r="E208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>20.7</v>
+      </c>
+      <c r="C209">
+        <v>18</v>
+      </c>
+      <c r="D209" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>24</v>
+      </c>
+      <c r="C210">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>27.2</v>
+      </c>
+      <c r="C211">
+        <v>27</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>29.4</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>29.9</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>28.8</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+      <c r="D214" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>26.2</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>23.1</v>
+      </c>
+      <c r="C216">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>20.3</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>18.5</v>
+      </c>
+      <c r="C218">
+        <v>7</v>
+      </c>
+      <c r="D218" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>18.2</v>
+      </c>
+      <c r="C219">
+        <v>10</v>
+      </c>
+      <c r="D219" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C220">
+        <v>10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>20.9</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>22.5</v>
+      </c>
+      <c r="C222">
+        <v>4</v>
+      </c>
+      <c r="D222" t="s">
+        <v>5</v>
+      </c>
+      <c r="E222">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>23.2</v>
+      </c>
+      <c r="C223">
+        <v>12</v>
+      </c>
+      <c r="D223" t="s">
+        <v>5</v>
+      </c>
+      <c r="E223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>22.4</v>
+      </c>
+      <c r="C224">
+        <v>7</v>
+      </c>
+      <c r="D224" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>20</v>
+      </c>
+      <c r="C225">
+        <v>16</v>
+      </c>
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C226">
+        <v>24</v>
+      </c>
+      <c r="D226" t="s">
+        <v>5</v>
+      </c>
+      <c r="E226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>12.3</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>6.4</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>6</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>5.6</v>
+      </c>
+      <c r="C230">
+        <v>6</v>
+      </c>
+      <c r="D230" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>6.4</v>
+      </c>
+      <c r="C231">
+        <v>12</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>10</v>
+      </c>
+      <c r="C233">
+        <v>12</v>
+      </c>
+      <c r="D233" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>11.1</v>
+      </c>
+      <c r="C234">
+        <v>17</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>10.9</v>
+      </c>
+      <c r="C235">
+        <v>16</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>6.6</v>
+      </c>
+      <c r="C237">
+        <v>21</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>3.6</v>
+      </c>
+      <c r="C238">
+        <v>18</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1.2</v>
+      </c>
+      <c r="C239">
+        <v>13</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>0.2</v>
+      </c>
+      <c r="C240">
+        <v>29</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>0.9</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>3.2</v>
+      </c>
+      <c r="C242">
+        <v>6</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>6.6</v>
+      </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>10</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>6</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>12.7</v>
+      </c>
+      <c r="C245">
+        <v>8</v>
+      </c>
+      <c r="D245" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>14.1</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>14</v>
+      </c>
+      <c r="C247">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>12.7</v>
+      </c>
+      <c r="C248">
+        <v>13</v>
+      </c>
+      <c r="D248" t="s">
+        <v>6</v>
+      </c>
+      <c r="E248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>11.1</v>
+      </c>
+      <c r="C249">
+        <v>18</v>
+      </c>
+      <c r="D249" t="s">
+        <v>6</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>10</v>
+      </c>
+      <c r="C250">
+        <v>15</v>
+      </c>
+      <c r="D250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>10.1</v>
+      </c>
+      <c r="C251">
+        <v>12</v>
+      </c>
+      <c r="D251" t="s">
+        <v>6</v>
+      </c>
+      <c r="E251">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>11.7</v>
+      </c>
+      <c r="C252">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>14.8</v>
+      </c>
+      <c r="C253">
+        <v>21</v>
+      </c>
+      <c r="D253" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>18.7</v>
+      </c>
+      <c r="C254">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>6</v>
+      </c>
+      <c r="E254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>22.5</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>25.4</v>
+      </c>
+      <c r="C256">
+        <v>3</v>
+      </c>
+      <c r="D256" t="s">
+        <v>5</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>26.8</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>26.5</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>24.9</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+      <c r="D259" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>22.6</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>20.7</v>
+      </c>
+      <c r="C261">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C262">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>5</v>
+      </c>
+      <c r="E262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C263">
+        <v>10</v>
+      </c>
+      <c r="D263" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>22.3</v>
+      </c>
+      <c r="C264">
+        <v>16</v>
+      </c>
+      <c r="D264" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>24.8</v>
+      </c>
+      <c r="C265">
+        <v>9</v>
+      </c>
+      <c r="D265" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>27.2</v>
+      </c>
+      <c r="C266">
+        <v>18</v>
+      </c>
+      <c r="D266" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>28.6</v>
+      </c>
+      <c r="C267">
+        <v>4</v>
+      </c>
+      <c r="D267" t="s">
+        <v>5</v>
+      </c>
+      <c r="E267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>28.4</v>
+      </c>
+      <c r="C268">
+        <v>22</v>
+      </c>
+      <c r="D268" t="s">
+        <v>5</v>
+      </c>
+      <c r="E268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>26.5</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>23.3</v>
+      </c>
+      <c r="C270">
+        <v>4</v>
+      </c>
+      <c r="D270" t="s">
+        <v>5</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>19.5</v>
+      </c>
+      <c r="C271">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>5</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>16</v>
+      </c>
+      <c r="C272">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>5</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>13.7</v>
+      </c>
+      <c r="C273">
+        <v>9</v>
+      </c>
+      <c r="D273" t="s">
+        <v>5</v>
+      </c>
+      <c r="E273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>12.9</v>
+      </c>
+      <c r="C274">
+        <v>7</v>
+      </c>
+      <c r="D274" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>13.5</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>5</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>15</v>
+      </c>
+      <c r="C276">
+        <v>18</v>
+      </c>
+      <c r="D276" t="s">
+        <v>5</v>
+      </c>
+      <c r="E276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C277">
+        <v>13</v>
+      </c>
+      <c r="D277" t="s">
+        <v>5</v>
+      </c>
+      <c r="E277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>5</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>16.3</v>
+      </c>
+      <c r="C279">
+        <v>10</v>
+      </c>
+      <c r="D279" t="s">
+        <v>5</v>
+      </c>
+      <c r="E279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>14</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>10.5</v>
+      </c>
+      <c r="C281">
+        <v>20</v>
+      </c>
+      <c r="D281" t="s">
+        <v>5</v>
+      </c>
+      <c r="E281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>6.7</v>
+      </c>
+      <c r="C282">
+        <v>17</v>
+      </c>
+      <c r="D282" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>3.5</v>
+      </c>
+      <c r="C283">
+        <v>13</v>
+      </c>
+      <c r="D283" t="s">
+        <v>5</v>
+      </c>
+      <c r="E283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>1.6</v>
+      </c>
+      <c r="C284">
+        <v>18</v>
+      </c>
+      <c r="D284" t="s">
+        <v>5</v>
+      </c>
+      <c r="E284">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>1.4</v>
+      </c>
+      <c r="C285">
+        <v>20</v>
+      </c>
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+      <c r="E285">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>2.8</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>5.2</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>6</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7.7</v>
+      </c>
+      <c r="C288">
+        <v>5</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>9.6</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>10.1</v>
+      </c>
+      <c r="C290">
+        <v>8</v>
+      </c>
+      <c r="D290" t="s">
+        <v>6</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+      <c r="D291" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>7.4</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+      <c r="D292" t="s">
+        <v>6</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C293">
+        <v>17</v>
+      </c>
+      <c r="D293" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>3.5</v>
+      </c>
+      <c r="C294">
+        <v>9</v>
+      </c>
+      <c r="D294" t="s">
+        <v>6</v>
+      </c>
+      <c r="E294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>3.2</v>
+      </c>
+      <c r="C295">
+        <v>4</v>
+      </c>
+      <c r="D295" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C296">
+        <v>24</v>
+      </c>
+      <c r="D296" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>7.5</v>
+      </c>
+      <c r="C297">
+        <v>21</v>
+      </c>
+      <c r="D297" t="s">
+        <v>6</v>
+      </c>
+      <c r="E297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>11.3</v>
+      </c>
+      <c r="C298">
+        <v>8</v>
+      </c>
+      <c r="D298" t="s">
+        <v>6</v>
+      </c>
+      <c r="E298">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>15.2</v>
+      </c>
+      <c r="C299">
+        <v>23</v>
+      </c>
+      <c r="D299" t="s">
+        <v>6</v>
+      </c>
+      <c r="E299">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>18.3</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C301">
+        <v>5</v>
+      </c>
+      <c r="D301" t="s">
+        <v>5</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>20</v>
+      </c>
+      <c r="C302">
+        <v>4</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C303">
+        <v>5</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>17.3</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>16</v>
+      </c>
+      <c r="C305">
+        <v>7</v>
+      </c>
+      <c r="D305">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>15.9</v>
+      </c>
+      <c r="C306">
+        <v>4</v>
+      </c>
+      <c r="D306">
+        <v>0</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>17.3</v>
+      </c>
+      <c r="C307">
+        <v>17</v>
+      </c>
+      <c r="D307">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>20</v>
+      </c>
+      <c r="C308">
+        <v>14</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>23.4</v>
+      </c>
+      <c r="C309">
+        <v>9</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>26.8</v>
+      </c>
+      <c r="C310">
+        <v>6</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>29.1</v>
+      </c>
+      <c r="C311">
+        <v>16</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>29.8</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>28.8</v>
+      </c>
+      <c r="C313">
+        <v>25</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>26.4</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>23.4</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>20.7</v>
+      </c>
+      <c r="C316">
+        <v>4</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C317">
+        <v>6</v>
+      </c>
+      <c r="D317">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C318">
+        <v>6</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>20</v>
+      </c>
+      <c r="C319">
+        <v>5</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>21.8</v>
+      </c>
+      <c r="C320">
+        <v>4</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>23.6</v>
+      </c>
+      <c r="C321">
+        <v>7</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>24.4</v>
+      </c>
+      <c r="C322">
+        <v>12</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>23.6</v>
+      </c>
+      <c r="C323">
+        <v>5</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>21.3</v>
+      </c>
+      <c r="C324">
+        <v>3</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>17.7</v>
+      </c>
+      <c r="C325">
+        <v>21</v>
+      </c>
+      <c r="D325">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>13.6</v>
+      </c>
+      <c r="C326">
+        <v>18</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>10</v>
+      </c>
+      <c r="C327">
+        <v>13</v>
+      </c>
+      <c r="D327">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>7.6</v>
+      </c>
+      <c r="C328">
+        <v>28</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>6.8</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>7.5</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>9.1</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>10.9</v>
+      </c>
+      <c r="C332">
+        <v>6</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>11.8</v>
+      </c>
+      <c r="C333">
+        <v>11</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>11.5</v>
+      </c>
+      <c r="C334">
+        <v>9</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C335">
+        <v>7</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>6.9</v>
+      </c>
+      <c r="C336">
+        <v>17</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>3.8</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>1.2</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>0.1</v>
+      </c>
+      <c r="C339">
+        <v>15</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>0.6</v>
+      </c>
+      <c r="C340">
+        <v>21</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>2.8</v>
+      </c>
+      <c r="C341">
+        <v>8</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>6</v>
+      </c>
+      <c r="C342">
+        <v>27</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>11.8</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>13.1</v>
+      </c>
+      <c r="C345">
+        <v>4</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>12.9</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>11.6</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>9.9</v>
+      </c>
+      <c r="C348">
+        <v>3</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C349">
+        <v>8</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C350">
+        <v>18</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>10.5</v>
+      </c>
+      <c r="C351">
+        <v>15</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>13.5</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>17.5</v>
+      </c>
+      <c r="C353">
+        <v>22</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>21.4</v>
+      </c>
+      <c r="C354">
+        <v>4</v>
+      </c>
+      <c r="D354">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>24.4</v>
+      </c>
+      <c r="C355">
+        <v>4</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>25.8</v>
+      </c>
+      <c r="C356">
+        <v>11</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>25.6</v>
+      </c>
+      <c r="C357">
+        <v>25</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>24.1</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>22</v>
+      </c>
+      <c r="C359">
+        <v>4</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>20.3</v>
+      </c>
+      <c r="C360">
+        <v>4</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>20.3</v>
+      </c>
+      <c r="C362">
+        <v>11</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>22.3</v>
+      </c>
+      <c r="C363">
+        <v>12</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>25</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>27.5</v>
+      </c>
+      <c r="C365">
+        <v>4</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>29.1</v>
+      </c>
+      <c r="C366">
+        <v>18</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>29</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368">
+        <v>27.2</v>
+      </c>
+      <c r="C368">
+        <v>19</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369">
+        <v>24.1</v>
+      </c>
+      <c r="C369">
+        <v>16</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C370">
+        <v>24</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C371">
+        <v>24</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>14.9</v>
+      </c>
+      <c r="C372">
+        <v>0</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>14.1</v>
+      </c>
+      <c r="C373">
+        <v>3</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>14.8</v>
+      </c>
+      <c r="C374">
+        <v>6</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>16.3</v>
+      </c>
+      <c r="C375">
+        <v>6</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>17.7</v>
+      </c>
+      <c r="C376">
+        <v>8</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>18.3</v>
+      </c>
+      <c r="C377">
+        <v>3</v>
+      </c>
+      <c r="D377">
+        <v>0</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>17.5</v>
+      </c>
+      <c r="C378">
+        <v>6</v>
+      </c>
+      <c r="D378">
+        <v>0</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>15.1</v>
+      </c>
+      <c r="C379">
+        <v>7</v>
+      </c>
+      <c r="D379">
+        <v>0</v>
+      </c>
+      <c r="E379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>11.6</v>
+      </c>
+      <c r="C380">
+        <v>11</v>
+      </c>
+      <c r="D380">
+        <v>0</v>
+      </c>
+      <c r="E380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>7.7</v>
+      </c>
+      <c r="C381">
+        <v>10</v>
+      </c>
+      <c r="D381">
+        <v>0</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C382">
+        <v>21</v>
+      </c>
+      <c r="D382">
+        <v>0</v>
+      </c>
+      <c r="E382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C383">
+        <v>22</v>
+      </c>
+      <c r="D383">
+        <v>0</v>
+      </c>
+      <c r="E383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>2</v>
+      </c>
+      <c r="C384">
+        <v>22</v>
+      </c>
+      <c r="D384">
+        <v>0</v>
+      </c>
+      <c r="E384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>3.2</v>
+      </c>
+      <c r="C385">
+        <v>29</v>
+      </c>
+      <c r="D385">
+        <v>0</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>5.5</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>0</v>
+      </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>7.9</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>9.6</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>10</v>
+      </c>
+      <c r="C389">
+        <v>3</v>
+      </c>
+      <c r="D389">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>9</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+      <c r="D390">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>6.9</v>
+      </c>
+      <c r="C391">
+        <v>10</v>
+      </c>
+      <c r="D391">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>4.5</v>
+      </c>
+      <c r="C392">
+        <v>3</v>
+      </c>
+      <c r="D392">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>2.8</v>
+      </c>
+      <c r="C393">
+        <v>11</v>
+      </c>
+      <c r="D393">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C394">
+        <v>17</v>
+      </c>
+      <c r="D394">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>3.6</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>6.4</v>
+      </c>
+      <c r="C396">
+        <v>8</v>
+      </c>
+      <c r="D396">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C397">
+        <v>11</v>
+      </c>
+      <c r="D397">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>14</v>
+      </c>
+      <c r="C398">
+        <v>23</v>
+      </c>
+      <c r="D398">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C399">
+        <v>29</v>
+      </c>
+      <c r="D399">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>18.7</v>
+      </c>
+      <c r="C400">
+        <v>0</v>
+      </c>
+      <c r="D400">
+        <v>0</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>18.8</v>
+      </c>
+      <c r="C401">
+        <v>5</v>
+      </c>
+      <c r="D401">
+        <v>0</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>17.7</v>
+      </c>
+      <c r="C402">
+        <v>2</v>
+      </c>
+      <c r="D402">
+        <v>0</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+      <c r="D403">
+        <v>0</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>14.9</v>
+      </c>
+      <c r="C404">
+        <v>7</v>
+      </c>
+      <c r="D404">
+        <v>0</v>
+      </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>14.9</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+      <c r="D405">
+        <v>0</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>16.3</v>
+      </c>
+      <c r="C406">
+        <v>3</v>
+      </c>
+      <c r="D406">
+        <v>0</v>
+      </c>
+      <c r="E406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C407">
+        <v>14</v>
+      </c>
+      <c r="D407">
+        <v>0</v>
+      </c>
+      <c r="E407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>22.7</v>
+      </c>
+      <c r="C408">
+        <v>12</v>
+      </c>
+      <c r="D408">
+        <v>0</v>
+      </c>
+      <c r="E408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>26.1</v>
+      </c>
+      <c r="C409">
+        <v>9</v>
+      </c>
+      <c r="D409">
+        <v>0</v>
+      </c>
+      <c r="E409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>28.6</v>
+      </c>
+      <c r="C410">
+        <v>14</v>
+      </c>
+      <c r="D410">
+        <v>0</v>
+      </c>
+      <c r="E410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>29.5</v>
+      </c>
+      <c r="C411">
+        <v>17</v>
+      </c>
+      <c r="D411">
+        <v>0</v>
+      </c>
+      <c r="E411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>28.6</v>
+      </c>
+      <c r="C412">
+        <v>9</v>
+      </c>
+      <c r="D412">
+        <v>0</v>
+      </c>
+      <c r="E412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>26.4</v>
+      </c>
+      <c r="C413">
+        <v>28</v>
+      </c>
+      <c r="D413">
+        <v>0</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>23.6</v>
+      </c>
+      <c r="C414">
+        <v>0</v>
+      </c>
+      <c r="D414">
+        <v>0</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>21</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415">
+        <v>0</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C416">
+        <v>6</v>
+      </c>
+      <c r="D416">
+        <v>0</v>
+      </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>19.5</v>
+      </c>
+      <c r="C417">
+        <v>4</v>
+      </c>
+      <c r="D417">
+        <v>0</v>
+      </c>
+      <c r="E417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>20.7</v>
+      </c>
+      <c r="C418">
+        <v>10</v>
+      </c>
+      <c r="D418">
+        <v>0</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>22.7</v>
+      </c>
+      <c r="C419">
+        <v>4</v>
+      </c>
+      <c r="D419">
+        <v>0</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>24.5</v>
+      </c>
+      <c r="C420">
+        <v>5</v>
+      </c>
+      <c r="D420">
+        <v>0</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>25.4</v>
+      </c>
+      <c r="C421">
+        <v>8</v>
+      </c>
+      <c r="D421">
+        <v>0</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>24.8</v>
+      </c>
+      <c r="C422">
+        <v>12</v>
+      </c>
+      <c r="D422">
+        <v>0</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>22.5</v>
+      </c>
+      <c r="C423">
+        <v>8</v>
+      </c>
+      <c r="D423">
+        <v>0</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C424">
+        <v>7</v>
+      </c>
+      <c r="D424">
+        <v>0</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>14.8</v>
+      </c>
+      <c r="C425">
+        <v>8</v>
+      </c>
+      <c r="D425">
+        <v>0</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>11.2</v>
+      </c>
+      <c r="C426">
+        <v>7</v>
+      </c>
+      <c r="D426">
+        <v>0</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C427">
+        <v>23</v>
+      </c>
+      <c r="D427">
+        <v>0</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>8</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>0</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>8.6</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429">
+        <v>0</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C430">
+        <v>5</v>
+      </c>
+      <c r="D430">
+        <v>0</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>11.8</v>
+      </c>
+      <c r="C431">
+        <v>5</v>
+      </c>
+      <c r="D431">
+        <v>0</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>12.7</v>
+      </c>
+      <c r="C432">
+        <v>8</v>
+      </c>
+      <c r="D432">
+        <v>0</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>12.2</v>
+      </c>
+      <c r="C433">
+        <v>6</v>
+      </c>
+      <c r="D433">
+        <v>0</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>10.3</v>
+      </c>
+      <c r="C434">
+        <v>9</v>
+      </c>
+      <c r="D434">
+        <v>0</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>7.4</v>
+      </c>
+      <c r="C435">
+        <v>17</v>
+      </c>
+      <c r="D435">
+        <v>0</v>
+      </c>
+      <c r="E435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C436">
+        <v>17</v>
+      </c>
+      <c r="D436">
+        <v>0</v>
+      </c>
+      <c r="E436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437">
+        <v>1.4</v>
+      </c>
+      <c r="C437">
+        <v>7</v>
+      </c>
+      <c r="D437">
+        <v>0</v>
+      </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>0.1</v>
+      </c>
+      <c r="C438">
+        <v>24</v>
+      </c>
+      <c r="D438">
+        <v>0</v>
+      </c>
+      <c r="E438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>0.5</v>
+      </c>
+      <c r="C439">
+        <v>16</v>
+      </c>
+      <c r="D439">
+        <v>0</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>2.5</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+      <c r="D440">
+        <v>0</v>
+      </c>
+      <c r="E440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>5.5</v>
+      </c>
+      <c r="C441">
+        <v>17</v>
+      </c>
+      <c r="D441">
+        <v>0</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C442">
+        <v>23</v>
+      </c>
+      <c r="D442">
+        <v>0</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443">
+        <v>11.1</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>0</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444">
+        <v>12.2</v>
+      </c>
+      <c r="C444">
+        <v>4</v>
+      </c>
+      <c r="D444">
+        <v>0</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445">
+        <v>11.9</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445">
+        <v>0</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446">
+        <v>10.5</v>
+      </c>
+      <c r="C446">
+        <v>1</v>
+      </c>
+      <c r="D446">
+        <v>0</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C447">
+        <v>6</v>
+      </c>
+      <c r="D447">
+        <v>0</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448">
+        <v>7.5</v>
+      </c>
+      <c r="C448">
+        <v>10</v>
+      </c>
+      <c r="D448">
+        <v>0</v>
+      </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449">
+        <v>7.6</v>
+      </c>
+      <c r="C449">
+        <v>10</v>
+      </c>
+      <c r="D449">
+        <v>0</v>
+      </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450">
+        <v>0</v>
+      </c>
+      <c r="E450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451">
+        <v>12.3</v>
+      </c>
+      <c r="C451">
+        <v>7</v>
+      </c>
+      <c r="D451">
+        <v>0</v>
+      </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452">
+        <v>16.3</v>
+      </c>
+      <c r="C452">
+        <v>18</v>
+      </c>
+      <c r="D452">
+        <v>0</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453">
+        <v>20.2</v>
+      </c>
+      <c r="C453">
+        <v>23</v>
+      </c>
+      <c r="D453">
+        <v>0</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454">
+        <v>23.2</v>
+      </c>
+      <c r="C454">
+        <v>7</v>
+      </c>
+      <c r="D454">
+        <v>0</v>
+      </c>
+      <c r="E454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455">
+        <v>24.8</v>
+      </c>
+      <c r="C455">
+        <v>20</v>
+      </c>
+      <c r="D455">
+        <v>0</v>
+      </c>
+      <c r="E455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456">
+        <v>24.9</v>
+      </c>
+      <c r="C456">
+        <v>14</v>
+      </c>
+      <c r="D456">
+        <v>0</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457">
+        <v>23.3</v>
+      </c>
+      <c r="C457">
+        <v>11</v>
+      </c>
+      <c r="D457">
+        <v>0</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458">
+        <v>21.3</v>
+      </c>
+      <c r="C458">
+        <v>10</v>
+      </c>
+      <c r="D458">
+        <v>0</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459">
+        <v>19.7</v>
+      </c>
+      <c r="C459">
+        <v>13</v>
+      </c>
+      <c r="D459">
+        <v>0</v>
+      </c>
+      <c r="E459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C460">
+        <v>24</v>
+      </c>
+      <c r="D460">
+        <v>0</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461">
+        <v>20</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>0</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462">
+        <v>22.1</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462">
+        <v>0</v>
+      </c>
+      <c r="E462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463">
+        <v>25</v>
+      </c>
+      <c r="C463">
+        <v>4</v>
+      </c>
+      <c r="D463">
+        <v>0</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>27.7</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464">
+        <v>0</v>
+      </c>
+      <c r="E464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>29.4</v>
+      </c>
+      <c r="C465">
+        <v>12</v>
+      </c>
+      <c r="D465">
+        <v>0</v>
+      </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466">
+        <v>29.5</v>
+      </c>
+      <c r="C466">
+        <v>12</v>
+      </c>
+      <c r="D466">
+        <v>0</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467">
+        <v>27.8</v>
+      </c>
+      <c r="C467">
+        <v>8</v>
+      </c>
+      <c r="D467">
+        <v>0</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>24.9</v>
+      </c>
+      <c r="C468">
+        <v>13</v>
+      </c>
+      <c r="D468">
+        <v>0</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>21.3</v>
+      </c>
+      <c r="C469">
+        <v>18</v>
+      </c>
+      <c r="D469">
+        <v>0</v>
+      </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C470">
+        <v>15</v>
+      </c>
+      <c r="D470">
+        <v>0</v>
+      </c>
+      <c r="E470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471">
+        <v>15.9</v>
+      </c>
+      <c r="C471">
+        <v>10</v>
+      </c>
+      <c r="D471">
+        <v>0</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472">
+        <v>15.3</v>
+      </c>
+      <c r="C472">
+        <v>7</v>
+      </c>
+      <c r="D472">
+        <v>0</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473">
+        <v>16</v>
+      </c>
+      <c r="C473">
+        <v>5</v>
+      </c>
+      <c r="D473">
+        <v>0</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474">
+        <v>17.5</v>
+      </c>
+      <c r="C474">
+        <v>26</v>
+      </c>
+      <c r="D474">
+        <v>0</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475">
+        <v>19</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>0</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476">
+        <v>19.5</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476">
+        <v>0</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477">
+        <v>18.7</v>
+      </c>
+      <c r="C477">
+        <v>6</v>
+      </c>
+      <c r="D477">
+        <v>0</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478">
+        <v>16.3</v>
+      </c>
+      <c r="C478">
+        <v>5</v>
+      </c>
+      <c r="D478">
+        <v>0</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479">
+        <v>12.7</v>
+      </c>
+      <c r="C479">
+        <v>6</v>
+      </c>
+      <c r="D479">
+        <v>0</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C480">
+        <v>7</v>
+      </c>
+      <c r="D480">
+        <v>0</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481">
+        <v>5.3</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+      <c r="D481">
+        <v>0</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482">
+        <v>3.2</v>
+      </c>
+      <c r="C482">
+        <v>7</v>
+      </c>
+      <c r="D482">
+        <v>0</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483">
+        <v>2.7</v>
+      </c>
+      <c r="C483">
+        <v>7</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484">
+        <v>3.9</v>
+      </c>
+      <c r="C484">
+        <v>8</v>
+      </c>
+      <c r="D484">
+        <v>0</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485">
+        <v>6</v>
+      </c>
+      <c r="C485">
+        <v>18</v>
+      </c>
+      <c r="D485">
+        <v>0</v>
+      </c>
+      <c r="E485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C486">
+        <v>23</v>
+      </c>
+      <c r="D486">
+        <v>0</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C487">
+        <v>23</v>
+      </c>
+      <c r="D487">
+        <v>0</v>
+      </c>
+      <c r="E487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488">
+        <v>10</v>
+      </c>
+      <c r="C488">
+        <v>11</v>
+      </c>
+      <c r="D488">
+        <v>0</v>
+      </c>
+      <c r="E488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C489">
+        <v>16</v>
+      </c>
+      <c r="D489">
+        <v>0</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490">
+        <v>6.6</v>
+      </c>
+      <c r="C490">
+        <v>22</v>
+      </c>
+      <c r="D490">
+        <v>0</v>
+      </c>
+      <c r="E490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C491">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>0</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492">
+        <v>0</v>
+      </c>
+      <c r="E492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493">
+        <v>1.6</v>
+      </c>
+      <c r="C493">
+        <v>4</v>
+      </c>
+      <c r="D493">
+        <v>0</v>
+      </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494">
+        <v>2.7</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494">
+        <v>0</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495">
+        <v>5.4</v>
+      </c>
+      <c r="C495">
+        <v>9</v>
+      </c>
+      <c r="D495">
+        <v>0</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496">
+        <v>9.1</v>
+      </c>
+      <c r="C496">
+        <v>11</v>
+      </c>
+      <c r="D496">
+        <v>0</v>
+      </c>
+      <c r="E496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497">
+        <v>12.9</v>
+      </c>
+      <c r="C497">
+        <v>8</v>
+      </c>
+      <c r="D497">
+        <v>0</v>
+      </c>
+      <c r="E497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498">
+        <v>15.9</v>
+      </c>
+      <c r="C498">
+        <v>16</v>
+      </c>
+      <c r="D498">
+        <v>0</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499">
+        <v>17.5</v>
+      </c>
+      <c r="C499">
+        <v>15</v>
+      </c>
+      <c r="D499">
+        <v>0</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500">
+        <v>17.5</v>
+      </c>
+      <c r="C500">
+        <v>8</v>
+      </c>
+      <c r="D500">
+        <v>0</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="C501">
+        <v>14</v>
+      </c>
+      <c r="D501">
+        <v>0</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>